--- a/leanCrm/data/physicalAreas/PhysicalAreasTypes/data/PhysicalAreasTypes.xlsx
+++ b/leanCrm/data/physicalAreas/PhysicalAreasTypes/data/PhysicalAreasTypes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>String</t>
   </si>
@@ -97,12 +97,18 @@
   </si>
   <si>
     <t>MVE</t>
+  </si>
+  <si>
+    <t>columnas</t>
+  </si>
+  <si>
+    <t>COL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,7 +608,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -903,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,25 +1005,33 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>22</v>
       </c>
     </row>

--- a/leanCrm/data/physicalAreas/PhysicalAreasTypes/data/PhysicalAreasTypes.xlsx
+++ b/leanCrm/data/physicalAreas/PhysicalAreasTypes/data/PhysicalAreasTypes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>String</t>
   </si>
@@ -66,49 +66,13 @@
     <t>Guardaescobas</t>
   </si>
   <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>PUE</t>
-  </si>
-  <si>
-    <t>PAR</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>FIL</t>
-  </si>
-  <si>
-    <t>PIS</t>
-  </si>
-  <si>
-    <t>GUA</t>
-  </si>
-  <si>
-    <t>TEC</t>
-  </si>
-  <si>
-    <t>MPO</t>
-  </si>
-  <si>
-    <t>MPU</t>
-  </si>
-  <si>
-    <t>MVE</t>
-  </si>
-  <si>
     <t>columnas</t>
-  </si>
-  <si>
-    <t>COL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -608,7 +572,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -912,7 +876,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,96 +907,96 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
+      <c r="B7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
+      <c r="B8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
+      <c r="B9">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
+      <c r="B10">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
+      <c r="B12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
+      <c r="B13">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
+      <c r="B14">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
